--- a/Time-Card/OSC/OCXO Daughtercard/BOM/SiTime_SiT5711_bom.xlsx
+++ b/Time-Card/OSC/OCXO Daughtercard/BOM/SiTime_SiT5711_bom.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\P4_Research\research\users\ChrisXRobles\Tasks\T110778869 - Time Card OCXO Daughter Card\846-01710_SCH_OCXO_DaughterCard\Active\outputs\assembly_845-02231-03\bom\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\julianstj\Desktop\WorkNotes\Projects\PTP\Time-Appliance-Project-master\Time-Card\OSC\OCXO Daughtercard\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{37CFA902-C25F-4E00-9A0F-9329879799A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF291A33-0763-497D-B5C9-5A32CFA6CE40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31635" yWindow="555" windowWidth="25410" windowHeight="14490" xr2:uid="{CFD41271-9A9B-4481-AE03-AB2CA4DCC1E0}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{CFD41271-9A9B-4481-AE03-AB2CA4DCC1E0}"/>
   </bookViews>
   <sheets>
     <sheet name="845-02231-03-RevX1_bom" sheetId="1" r:id="rId1"/>
@@ -434,9 +434,6 @@
     <t>R8</t>
   </si>
   <si>
-    <t>R11, R12, R17, R18, R19, R24, R25, R26, R29, R31</t>
-  </si>
-  <si>
     <t>RC0402JR-070RL</t>
   </si>
   <si>
@@ -684,6 +681,9 @@
   </si>
   <si>
     <t>SITIME_SPL-086-CQFN-010-C07050_REV_DRAFT</t>
+  </si>
+  <si>
+    <t>R11, R12, R17, R18, R19, R24, R25, R26, R30, R32</t>
   </si>
 </sst>
 </file>
@@ -1062,24 +1062,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69A575BD-DA99-42BA-87CA-C2CEA6FB6575}">
   <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.21875" customWidth="1"/>
-    <col min="2" max="2" width="37.88671875" customWidth="1"/>
-    <col min="3" max="3" width="21.5546875" customWidth="1"/>
-    <col min="4" max="4" width="28.5546875" customWidth="1"/>
-    <col min="5" max="5" width="9.33203125" customWidth="1"/>
+    <col min="1" max="1" width="13.1796875" customWidth="1"/>
+    <col min="2" max="2" width="37.90625" customWidth="1"/>
+    <col min="3" max="3" width="21.54296875" customWidth="1"/>
+    <col min="4" max="4" width="28.54296875" customWidth="1"/>
+    <col min="5" max="5" width="9.36328125" customWidth="1"/>
     <col min="6" max="6" width="24" customWidth="1"/>
     <col min="7" max="7" width="25" customWidth="1"/>
     <col min="8" max="8" width="31" customWidth="1"/>
-    <col min="9" max="9" width="17.33203125" customWidth="1"/>
+    <col min="9" max="9" width="17.36328125" customWidth="1"/>
     <col min="10" max="11" width="16" customWidth="1"/>
-    <col min="12" max="12" width="34.5546875" customWidth="1"/>
+    <col min="12" max="12" width="34.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1117,7 +1119,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
@@ -1149,7 +1151,7 @@
       </c>
       <c r="L2" s="1"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>19</v>
       </c>
@@ -1181,7 +1183,7 @@
       </c>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>25</v>
       </c>
@@ -1213,7 +1215,7 @@
       </c>
       <c r="L4" s="1"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>31</v>
       </c>
@@ -1245,7 +1247,7 @@
       </c>
       <c r="L5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>33</v>
       </c>
@@ -1277,7 +1279,7 @@
       </c>
       <c r="L6" s="1"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>38</v>
       </c>
@@ -1309,7 +1311,7 @@
       </c>
       <c r="L7" s="1"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>39</v>
       </c>
@@ -1341,7 +1343,7 @@
       </c>
       <c r="L8" s="1"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>44</v>
       </c>
@@ -1379,7 +1381,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>53</v>
       </c>
@@ -1409,7 +1411,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>55</v>
       </c>
@@ -1441,7 +1443,7 @@
       </c>
       <c r="L11" s="1"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>62</v>
       </c>
@@ -1471,7 +1473,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>68</v>
       </c>
@@ -1503,7 +1505,7 @@
       </c>
       <c r="L13" s="1"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>70</v>
       </c>
@@ -1535,7 +1537,7 @@
       </c>
       <c r="L14" s="1"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>71</v>
       </c>
@@ -1567,7 +1569,7 @@
       </c>
       <c r="L15" s="1"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>77</v>
       </c>
@@ -1599,7 +1601,7 @@
       </c>
       <c r="L16" s="1"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>83</v>
       </c>
@@ -1631,7 +1633,7 @@
       </c>
       <c r="L17" s="1"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>89</v>
       </c>
@@ -1663,7 +1665,7 @@
       </c>
       <c r="L18" s="1"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>95</v>
       </c>
@@ -1695,7 +1697,7 @@
       </c>
       <c r="L19" s="1"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>101</v>
       </c>
@@ -1727,7 +1729,7 @@
       </c>
       <c r="L20" s="1"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>107</v>
       </c>
@@ -1759,7 +1761,7 @@
       </c>
       <c r="L21" s="1"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>112</v>
       </c>
@@ -1791,7 +1793,7 @@
       </c>
       <c r="L22" s="1"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>116</v>
       </c>
@@ -1823,7 +1825,7 @@
       </c>
       <c r="L23" s="1"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>121</v>
       </c>
@@ -1855,7 +1857,7 @@
       </c>
       <c r="L24" s="1"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>125</v>
       </c>
@@ -1887,7 +1889,7 @@
       </c>
       <c r="L25" s="1"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>130</v>
       </c>
@@ -1919,18 +1921,18 @@
       </c>
       <c r="L26" s="1"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
-        <v>131</v>
+        <v>214</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>99</v>
       </c>
       <c r="C27" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>133</v>
       </c>
       <c r="E27" s="1">
         <v>10</v>
@@ -1942,48 +1944,48 @@
         <v>48</v>
       </c>
       <c r="H27" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="I27" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="I27" s="2" t="s">
+      <c r="J27" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="J27" s="2" t="s">
+      <c r="K27" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L27" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="K27" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L27" s="2" t="s">
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A28" s="2" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
+      <c r="B28" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="C28" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="D28" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>141</v>
       </c>
       <c r="E28" s="1">
         <v>2</v>
       </c>
       <c r="F28" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="H28" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="G28" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="H28" s="2" t="s">
+      <c r="I28" s="2" t="s">
         <v>143</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>144</v>
       </c>
       <c r="J28" s="2" t="s">
         <v>43</v>
@@ -1992,21 +1994,21 @@
         <v>10</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="C29" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="D29" s="2" t="s">
         <v>147</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>148</v>
       </c>
       <c r="E29" s="1">
         <v>2</v>
@@ -2015,34 +2017,34 @@
         <v>49</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H29" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="I29" s="2" t="s">
         <v>149</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>150</v>
       </c>
       <c r="J29" s="1"/>
       <c r="K29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="C30" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="D30" s="2" t="s">
         <v>153</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>154</v>
       </c>
       <c r="E30" s="1">
         <v>0</v>
@@ -2051,13 +2053,13 @@
         <v>48</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H30" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="I30" s="2" t="s">
         <v>155</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>156</v>
       </c>
       <c r="J30" s="2" t="s">
         <v>43</v>
@@ -2066,21 +2068,21 @@
         <v>32</v>
       </c>
       <c r="L30" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A31" s="2" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A31" s="2" t="s">
+      <c r="B31" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="C31" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>160</v>
-      </c>
       <c r="D31" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E31" s="1">
         <v>0</v>
@@ -2089,13 +2091,13 @@
         <v>48</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H31" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="I31" s="2" t="s">
         <v>161</v>
-      </c>
-      <c r="I31" s="2" t="s">
-        <v>162</v>
       </c>
       <c r="J31" s="2" t="s">
         <v>43</v>
@@ -2104,21 +2106,21 @@
         <v>32</v>
       </c>
       <c r="L31" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A32" s="2" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A32" s="2" t="s">
+      <c r="B32" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="C32" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="D32" s="2" t="s">
         <v>166</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>167</v>
       </c>
       <c r="E32" s="1">
         <v>1</v>
@@ -2128,29 +2130,29 @@
       </c>
       <c r="G32" s="1"/>
       <c r="H32" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I32" s="1"/>
       <c r="J32" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L32" s="1"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A33" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="K32" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L32" s="1"/>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A33" s="2" t="s">
+      <c r="B33" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="C33" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="D33" s="2" t="s">
         <v>172</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>173</v>
       </c>
       <c r="E33" s="1">
         <v>1</v>
@@ -2160,29 +2162,29 @@
       </c>
       <c r="G33" s="1"/>
       <c r="H33" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I33" s="1"/>
       <c r="J33" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L33" s="1"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A34" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="K33" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L33" s="1"/>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A34" s="2" t="s">
+      <c r="B34" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="C34" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="D34" s="2" t="s">
         <v>178</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>179</v>
       </c>
       <c r="E34" s="1">
         <v>1</v>
@@ -2192,29 +2194,29 @@
       </c>
       <c r="G34" s="1"/>
       <c r="H34" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I34" s="1"/>
       <c r="J34" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="L34" s="1"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="C35" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>183</v>
-      </c>
       <c r="D35" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E35" s="1">
         <v>1</v>
@@ -2224,29 +2226,29 @@
       </c>
       <c r="G35" s="1"/>
       <c r="H35" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I35" s="1"/>
       <c r="J35" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="L35" s="1"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="C36" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="D36" s="2" t="s">
         <v>187</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>188</v>
       </c>
       <c r="E36" s="1">
         <v>1</v>
@@ -2256,29 +2258,29 @@
       </c>
       <c r="G36" s="1"/>
       <c r="H36" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I36" s="1"/>
       <c r="J36" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L36" s="1"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A37" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="K36" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L36" s="1"/>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A37" s="2" t="s">
+      <c r="B37" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="C37" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="D37" s="2" t="s">
         <v>193</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>194</v>
       </c>
       <c r="E37" s="1">
         <v>0</v>
@@ -2288,25 +2290,25 @@
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
       <c r="J37" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K37" s="2" t="s">
         <v>32</v>
       </c>
       <c r="L37" s="1"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="C38" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="D38" s="2" t="s">
         <v>198</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>199</v>
       </c>
       <c r="E38" s="1">
         <v>1</v>
@@ -2316,25 +2318,25 @@
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
       <c r="J38" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L38" s="1"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A39" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L38" s="1"/>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A39" s="2" t="s">
+      <c r="B39" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="C39" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="D39" s="2" t="s">
         <v>203</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>204</v>
       </c>
       <c r="E39" s="1">
         <v>0</v>
@@ -2344,29 +2346,29 @@
       </c>
       <c r="G39" s="1"/>
       <c r="H39" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I39" s="1"/>
       <c r="J39" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K39" s="2" t="s">
         <v>32</v>
       </c>
       <c r="L39" s="1"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="C40" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="D40" s="2" t="s">
         <v>209</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>210</v>
       </c>
       <c r="E40" s="1">
         <v>0</v>
@@ -2376,25 +2378,25 @@
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
       <c r="J40" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K40" s="2" t="s">
         <v>32</v>
       </c>
       <c r="L40" s="1"/>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="C41" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="D41" s="2" t="s">
         <v>213</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>214</v>
       </c>
       <c r="E41" s="1">
         <v>0</v>
@@ -2404,7 +2406,7 @@
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
       <c r="J41" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="K41" s="2" t="s">
         <v>32</v>

--- a/Time-Card/OSC/OCXO Daughtercard/BOM/SiTime_SiT5711_bom.xlsx
+++ b/Time-Card/OSC/OCXO Daughtercard/BOM/SiTime_SiT5711_bom.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\julianstj\Desktop\WorkNotes\Projects\PTP\Time-Appliance-Project-master\Time-Card\OSC\OCXO Daughtercard\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF291A33-0763-497D-B5C9-5A32CFA6CE40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0017B4F-836F-42D0-8151-4D5AC0646328}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{CFD41271-9A9B-4481-AE03-AB2CA4DCC1E0}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="219">
   <si>
     <t>Designator</t>
   </si>
@@ -684,16 +684,36 @@
   </si>
   <si>
     <t>R11, R12, R17, R18, R19, R24, R25, R26, R30, R32</t>
+  </si>
+  <si>
+    <t>Alternate 1</t>
+  </si>
+  <si>
+    <t>Alternate 2</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/keystone-electronics/1405-1/318164</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/keystone-electronics/1425-1/318192?s=N4IgTCBcDaIIwBYwFYC0cQF0C%2BQ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -737,17 +757,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1060,10 +1091,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69A575BD-DA99-42BA-87CA-C2CEA6FB6575}">
-  <dimension ref="A1:L41"/>
+  <dimension ref="A1:N41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1079,9 +1110,11 @@
     <col min="9" max="9" width="17.36328125" customWidth="1"/>
     <col min="10" max="11" width="16" customWidth="1"/>
     <col min="12" max="12" width="34.54296875" customWidth="1"/>
+    <col min="13" max="13" width="21.08984375" style="6" customWidth="1"/>
+    <col min="14" max="14" width="22.36328125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1118,8 +1151,14 @@
       <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M1" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
@@ -1151,7 +1190,7 @@
       </c>
       <c r="L2" s="1"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>19</v>
       </c>
@@ -1183,7 +1222,7 @@
       </c>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>25</v>
       </c>
@@ -1215,7 +1254,7 @@
       </c>
       <c r="L4" s="1"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>31</v>
       </c>
@@ -1247,7 +1286,7 @@
       </c>
       <c r="L5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>33</v>
       </c>
@@ -1279,7 +1318,7 @@
       </c>
       <c r="L6" s="1"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>38</v>
       </c>
@@ -1311,7 +1350,7 @@
       </c>
       <c r="L7" s="1"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>39</v>
       </c>
@@ -1343,7 +1382,7 @@
       </c>
       <c r="L8" s="1"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>44</v>
       </c>
@@ -1381,7 +1420,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>53</v>
       </c>
@@ -1411,7 +1450,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>55</v>
       </c>
@@ -1443,7 +1482,7 @@
       </c>
       <c r="L11" s="1"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>62</v>
       </c>
@@ -1473,7 +1512,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>68</v>
       </c>
@@ -1505,7 +1544,7 @@
       </c>
       <c r="L13" s="1"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>70</v>
       </c>
@@ -1537,7 +1576,7 @@
       </c>
       <c r="L14" s="1"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>71</v>
       </c>
@@ -1569,7 +1608,7 @@
       </c>
       <c r="L15" s="1"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>77</v>
       </c>
@@ -1600,6 +1639,12 @@
         <v>10</v>
       </c>
       <c r="L16" s="1"/>
+      <c r="M16" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="N16" s="7" t="s">
+        <v>218</v>
+      </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
@@ -2414,7 +2459,11 @@
       <c r="L41" s="1"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="M16" r:id="rId1" xr:uid="{85B54BD2-8AFC-4D76-9E5A-DC0F5B007924}"/>
+    <hyperlink ref="N16" r:id="rId2" xr:uid="{3123A075-FD67-4215-A0EE-4AD32200ADAA}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>